--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Sibling's health status</t>
+    <t>NG-Imm Sibling's health status</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-sibling-health-status</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -697,7 +703,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -1298,13 +1304,11 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1334,7 +1338,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-sibling-health-status</t>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-sibling-health-status</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -703,7 +703,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sibling-health-status.xlsx
+++ b/StructureDefinition-sibling-health-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
